--- a/CriticalThinking/predictions.xlsx
+++ b/CriticalThinking/predictions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prodduke-my.sharepoint.com/personal/gjc28_duke_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8069104E-D54E-4C1F-88E7-FD40995CEEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4FCA3C2-CA88-4294-AA01-6EEEB310EC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Greg Judgements" sheetId="5" r:id="rId1"/>
@@ -8813,9 +8813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC30F1A-3D98-384E-81AD-600A5B659D09}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="U2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U6" sqref="U6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q72" sqref="Q72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9152,7 +9152,7 @@
         <v>13.14650262018683</v>
       </c>
       <c r="Q6" s="8">
-        <v>98375</v>
+        <v>98000</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="25.5" customHeight="1">
@@ -9205,7 +9205,7 @@
         <v>12.923076923076923</v>
       </c>
       <c r="Q7" s="8">
-        <v>92753</v>
+        <v>92000</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="25.5" customHeight="1">
@@ -9258,7 +9258,7 @@
         <v>17.620650953984288</v>
       </c>
       <c r="Q8" s="8">
-        <v>91221</v>
+        <v>91000</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="25.5" customHeight="1">
@@ -9311,7 +9311,7 @@
         <v>5.0053248136315229</v>
       </c>
       <c r="Q9" s="8">
-        <v>91234</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="25.5" customHeight="1">
@@ -9364,7 +9364,7 @@
         <v>6.4153439153439145</v>
       </c>
       <c r="Q10" s="8">
-        <v>93048</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="25.5" customHeight="1">
@@ -9417,7 +9417,7 @@
         <v>3.3395872420262664</v>
       </c>
       <c r="Q11" s="8">
-        <v>102846</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="25.5" customHeight="1">
@@ -9470,7 +9470,7 @@
         <v>16.38697845025218</v>
       </c>
       <c r="Q12" s="8">
-        <v>93928</v>
+        <v>88000</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="25.5" customHeight="1">
@@ -9523,7 +9523,7 @@
         <v>12.243243243243242</v>
       </c>
       <c r="Q13" s="8">
-        <v>95746</v>
+        <v>91500</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="25.5" customHeight="1">
@@ -9576,7 +9576,7 @@
         <v>18.367346938775512</v>
       </c>
       <c r="Q14" s="8">
-        <v>98473</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="25.5" customHeight="1">
@@ -9629,7 +9629,7 @@
         <v>10.743193524650479</v>
       </c>
       <c r="Q15" s="8">
-        <v>91033</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="25.5" customHeight="1">
@@ -9682,7 +9682,7 @@
         <v>12.187115305703735</v>
       </c>
       <c r="Q16" s="8">
-        <v>94037</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="25.5" customHeight="1">
@@ -9735,7 +9735,7 @@
         <v>17.360315642102584</v>
       </c>
       <c r="Q17" s="8">
-        <v>98463</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="25.5" customHeight="1">
@@ -9788,7 +9788,7 @@
         <v>10.283960092095164</v>
       </c>
       <c r="Q18" s="8">
-        <v>95033</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="25.5" customHeight="1">
@@ -9841,7 +9841,7 @@
         <v>11.968807500219047</v>
       </c>
       <c r="Q19" s="8">
-        <v>93057</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="25.5" customHeight="1">
@@ -9894,7 +9894,7 @@
         <v>10.231023102310232</v>
       </c>
       <c r="Q20" s="8">
-        <v>100453</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="25.5" customHeight="1">
@@ -9947,7 +9947,7 @@
         <v>17.228739002932549</v>
       </c>
       <c r="Q21" s="8">
-        <v>91022</v>
+        <v>93500</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="25.5" customHeight="1">
@@ -10000,7 +10000,7 @@
         <v>18.193031144002468</v>
       </c>
       <c r="Q22" s="8">
-        <v>94720</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="25.5" customHeight="1">
@@ -10053,7 +10053,7 @@
         <v>16.643372932681107</v>
       </c>
       <c r="Q23" s="8">
-        <v>92039</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="25.5" customHeight="1">
@@ -10106,7 +10106,7 @@
         <v>11.125485122897802</v>
       </c>
       <c r="Q24" s="8">
-        <v>92884</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="25.5" customHeight="1">
@@ -10159,7 +10159,7 @@
         <v>22.778079218665219</v>
       </c>
       <c r="Q25" s="8">
-        <v>93527</v>
+        <v>94500</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="25.5" customHeight="1">
@@ -10212,7 +10212,7 @@
         <v>15.254237288135595</v>
       </c>
       <c r="Q26" s="8">
-        <v>92653</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="25.5" customHeight="1">
@@ -10265,7 +10265,7 @@
         <v>80.463871543264943</v>
       </c>
       <c r="Q27" s="8">
-        <v>91034</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="25.5" customHeight="1">
@@ -10318,7 +10318,7 @@
         <v>19.163763066202087</v>
       </c>
       <c r="Q28" s="8">
-        <v>86793</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="25.5" customHeight="1">
@@ -10371,7 +10371,7 @@
         <v>9.4279618372851335</v>
       </c>
       <c r="Q29" s="8">
-        <v>88946</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="25.5" customHeight="1">
@@ -10424,7 +10424,7 @@
         <v>13.163972286374133</v>
       </c>
       <c r="Q30" s="8">
-        <v>91943</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="25.5" customHeight="1">
@@ -10477,7 +10477,7 @@
         <v>14.759458197104157</v>
       </c>
       <c r="Q31" s="8">
-        <v>89463</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="25.5" customHeight="1">
@@ -10530,7 +10530,7 @@
         <v>16.788321167883211</v>
       </c>
       <c r="Q32" s="8">
-        <v>124673</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="25.5" customHeight="1">
@@ -10583,7 +10583,7 @@
         <v>18.171683389074694</v>
       </c>
       <c r="Q33" s="8">
-        <v>114045</v>
+        <v>155000</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="25.5" customHeight="1">
@@ -10636,7 +10636,7 @@
         <v>8.1317668739921682</v>
       </c>
       <c r="Q34" s="8">
-        <v>83747</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="25.5" customHeight="1">
@@ -10689,7 +10689,7 @@
         <v>17.730496453900709</v>
       </c>
       <c r="Q35" s="8">
-        <v>95043</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="25.5" customHeight="1">
@@ -10742,7 +10742,7 @@
         <v>11.859049955186565</v>
       </c>
       <c r="Q36" s="8">
-        <v>84983</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="25.5" customHeight="1">
@@ -10795,7 +10795,7 @@
         <v>16.98744769874477</v>
       </c>
       <c r="Q37" s="8">
-        <v>80234</v>
+        <v>91000</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="25.5" customHeight="1">
@@ -10848,7 +10848,7 @@
         <v>20.502200362412633</v>
       </c>
       <c r="Q38" s="8">
-        <v>141683</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="25.5" customHeight="1">
@@ -10901,7 +10901,7 @@
         <v>91.422333125389898</v>
       </c>
       <c r="Q39" s="8">
-        <v>93944</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="25.5" customHeight="1">
@@ -10954,7 +10954,7 @@
         <v>16.960394163350387</v>
       </c>
       <c r="Q40" s="8">
-        <v>160394</v>
+        <v>161000</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="25.5" customHeight="1">
@@ -11007,7 +11007,7 @@
         <v>13.830334190231362</v>
       </c>
       <c r="Q41" s="8">
-        <v>124493</v>
+        <v>163000</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="25.5" customHeight="1">
@@ -11060,7 +11060,7 @@
         <v>10.335393656905461</v>
       </c>
       <c r="Q42" s="8">
-        <v>85332</v>
+        <v>97500</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="25.5" customHeight="1">
@@ -11113,7 +11113,7 @@
         <v>8.0505394979594112</v>
       </c>
       <c r="Q43" s="8">
-        <v>90128</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="25.5" customHeight="1">
@@ -11166,7 +11166,7 @@
         <v>18.014059753954307</v>
       </c>
       <c r="Q44" s="8">
-        <v>94037</v>
+        <v>157000</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="25.5" customHeight="1">
@@ -11219,7 +11219,7 @@
         <v>14.601805905800049</v>
       </c>
       <c r="Q45" s="8">
-        <v>90112</v>
+        <v>92500</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="25.5" customHeight="1">
@@ -11272,7 +11272,7 @@
         <v>13.03604988894584</v>
       </c>
       <c r="Q46" s="8">
-        <v>101362</v>
+        <v>163000</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="25.5" customHeight="1">
@@ -11325,7 +11325,7 @@
         <v>11.550151975683889</v>
       </c>
       <c r="Q47" s="8">
-        <v>89266</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="25.5" customHeight="1">
@@ -11378,7 +11378,7 @@
         <v>31.288343558282207</v>
       </c>
       <c r="Q48" s="8">
-        <v>90845</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="25.5" customHeight="1">
@@ -11431,7 +11431,7 @@
         <v>13.465220165922144</v>
       </c>
       <c r="Q49" s="8">
-        <v>94553</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="25.5" customHeight="1">
@@ -11484,7 +11484,7 @@
         <v>13.93572181243414</v>
       </c>
       <c r="Q50" s="8">
-        <v>92034</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="25.5" customHeight="1">
@@ -11537,7 +11537,7 @@
         <v>10.619145199063231</v>
       </c>
       <c r="Q51" s="8">
-        <v>119736</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="25.5" customHeight="1">
@@ -11590,7 +11590,7 @@
         <v>14.660493827160494</v>
       </c>
       <c r="Q52" s="8">
-        <v>91873</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="25.5" customHeight="1">
@@ -11643,7 +11643,7 @@
         <v>29.124573436496942</v>
       </c>
       <c r="Q53" s="8">
-        <v>94372</v>
+        <v>93500</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="25.5" customHeight="1">
@@ -11696,7 +11696,7 @@
         <v>22.4</v>
       </c>
       <c r="Q54" s="8">
-        <v>158032</v>
+        <v>161000</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="25.5" customHeight="1">
@@ -11749,7 +11749,7 @@
         <v>28.959316300186948</v>
       </c>
       <c r="Q55" s="8">
-        <v>117352</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="25.5" customHeight="1">
@@ -11802,7 +11802,7 @@
         <v>16.109045848822799</v>
       </c>
       <c r="Q56" s="8">
-        <v>108663</v>
+        <v>155000</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="25.5" customHeight="1">
@@ -11855,7 +11855,7 @@
         <v>7.401854821839482</v>
       </c>
       <c r="Q57" s="8">
-        <v>93567</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="25.5" customHeight="1">
@@ -11908,7 +11908,7 @@
         <v>16.869779542653703</v>
       </c>
       <c r="Q58" s="8">
-        <v>94735</v>
+        <v>92000</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="25.5" customHeight="1">
@@ -11961,7 +11961,7 @@
         <v>17.649177572337614</v>
       </c>
       <c r="Q59" s="8">
-        <v>124738</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="25.5" customHeight="1">
@@ -12014,7 +12014,7 @@
         <v>15.953947368421051</v>
       </c>
       <c r="Q60" s="8">
-        <v>90053</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="25.5" customHeight="1">
@@ -12067,7 +12067,7 @@
         <v>8.4738790621143565</v>
       </c>
       <c r="Q61" s="8">
-        <v>108362</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="25.5" customHeight="1">
@@ -12120,7 +12120,7 @@
         <v>9.7560975609756095</v>
       </c>
       <c r="Q62" s="8">
-        <v>92754</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="25.5" customHeight="1">
@@ -12173,7 +12173,7 @@
         <v>11.148145521594213</v>
       </c>
       <c r="Q63" s="8">
-        <v>108463</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="25.5" customHeight="1">
@@ -12226,7 +12226,7 @@
         <v>28.118361902880007</v>
       </c>
       <c r="Q64" s="8">
-        <v>117585</v>
+        <v>112000</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="25.5" customHeight="1">
@@ -12279,7 +12279,7 @@
         <v>32.132352941176471</v>
       </c>
       <c r="Q65" s="8">
-        <v>93648</v>
+        <v>88000</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="25.5" customHeight="1">
@@ -12332,7 +12332,7 @@
         <v>8.9705882352941178</v>
       </c>
       <c r="Q66" s="8">
-        <v>87630</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="25.5" customHeight="1">
@@ -12385,7 +12385,7 @@
         <v>2.9350104821802931</v>
       </c>
       <c r="Q67" s="8">
-        <v>84989</v>
+        <v>91000</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="25.5" customHeight="1">
@@ -12438,7 +12438,7 @@
         <v>13.93401649587603</v>
       </c>
       <c r="Q68" s="8">
-        <v>94839</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="25.5" customHeight="1">
@@ -12491,7 +12491,7 @@
         <v>12.507552870090635</v>
       </c>
       <c r="Q69" s="8">
-        <v>85545</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="25.5" customHeight="1">
@@ -12544,7 +12544,7 @@
         <v>20.681211041852183</v>
       </c>
       <c r="Q70" s="8">
-        <v>161057</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="25.5" customHeight="1">
@@ -12597,7 +12597,7 @@
         <v>11.481332798073062</v>
       </c>
       <c r="Q71" s="8">
-        <v>152783</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -12625,8 +12625,8 @@
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="T4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T4" sqref="T4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -16225,7 +16225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>

--- a/CriticalThinking/predictions.xlsx
+++ b/CriticalThinking/predictions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prodduke-my.sharepoint.com/personal/gjc28_duke_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4FCA3C2-CA88-4294-AA01-6EEEB310EC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC96A1C9-BD51-4A92-B012-D30A509CC861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5003,8 +5003,8 @@
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="U13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q7" sqref="Q7:Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8814,8 +8814,8 @@
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q72" sqref="Q72"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8940,7 +8940,7 @@
         <v>16.285998013902681</v>
       </c>
       <c r="Q2" s="8">
-        <v>96473</v>
+        <v>99400</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="25.5" customHeight="1">
@@ -8993,7 +8993,7 @@
         <v>6.7478437341451034</v>
       </c>
       <c r="Q3" s="8">
-        <v>97449</v>
+        <v>99600</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="25.5" customHeight="1">
@@ -9046,7 +9046,7 @@
         <v>7.9461821527138916</v>
       </c>
       <c r="Q4" s="8">
-        <v>91877</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="25.5" customHeight="1">
@@ -9099,7 +9099,7 @@
         <v>17.247454972592013</v>
       </c>
       <c r="Q5" s="8">
-        <v>93027</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="25.5" customHeight="1">
@@ -9152,7 +9152,7 @@
         <v>13.14650262018683</v>
       </c>
       <c r="Q6" s="8">
-        <v>98000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="25.5" customHeight="1">
@@ -9205,7 +9205,7 @@
         <v>12.923076923076923</v>
       </c>
       <c r="Q7" s="8">
-        <v>92000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="25.5" customHeight="1">
@@ -9258,7 +9258,7 @@
         <v>17.620650953984288</v>
       </c>
       <c r="Q8" s="8">
-        <v>91000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="25.5" customHeight="1">
@@ -9311,7 +9311,7 @@
         <v>5.0053248136315229</v>
       </c>
       <c r="Q9" s="8">
-        <v>94000</v>
+        <v>146000</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="25.5" customHeight="1">
@@ -9364,7 +9364,7 @@
         <v>6.4153439153439145</v>
       </c>
       <c r="Q10" s="8">
-        <v>94000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="25.5" customHeight="1">
@@ -9417,7 +9417,7 @@
         <v>3.3395872420262664</v>
       </c>
       <c r="Q11" s="8">
-        <v>110000</v>
+        <v>136000</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="25.5" customHeight="1">
@@ -9470,7 +9470,7 @@
         <v>16.38697845025218</v>
       </c>
       <c r="Q12" s="8">
-        <v>88000</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="25.5" customHeight="1">
@@ -9523,7 +9523,7 @@
         <v>12.243243243243242</v>
       </c>
       <c r="Q13" s="8">
-        <v>91500</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="25.5" customHeight="1">
@@ -9576,7 +9576,7 @@
         <v>18.367346938775512</v>
       </c>
       <c r="Q14" s="8">
-        <v>110000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="25.5" customHeight="1">
@@ -9629,7 +9629,7 @@
         <v>10.743193524650479</v>
       </c>
       <c r="Q15" s="8">
-        <v>89000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="25.5" customHeight="1">
@@ -9682,7 +9682,7 @@
         <v>12.187115305703735</v>
       </c>
       <c r="Q16" s="8">
-        <v>95000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="25.5" customHeight="1">
@@ -9735,7 +9735,7 @@
         <v>17.360315642102584</v>
       </c>
       <c r="Q17" s="8">
-        <v>140000</v>
+        <v>113000</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="25.5" customHeight="1">
@@ -9788,7 +9788,7 @@
         <v>10.283960092095164</v>
       </c>
       <c r="Q18" s="8">
-        <v>96000</v>
+        <v>86000</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="25.5" customHeight="1">
@@ -9894,7 +9894,7 @@
         <v>10.231023102310232</v>
       </c>
       <c r="Q20" s="8">
-        <v>135000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="25.5" customHeight="1">
@@ -9947,7 +9947,7 @@
         <v>17.228739002932549</v>
       </c>
       <c r="Q21" s="8">
-        <v>93500</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="25.5" customHeight="1">
@@ -10000,7 +10000,7 @@
         <v>18.193031144002468</v>
       </c>
       <c r="Q22" s="8">
-        <v>115000</v>
+        <v>100500</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="25.5" customHeight="1">
@@ -10053,7 +10053,7 @@
         <v>16.643372932681107</v>
       </c>
       <c r="Q23" s="8">
-        <v>99000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="25.5" customHeight="1">
@@ -10106,7 +10106,7 @@
         <v>11.125485122897802</v>
       </c>
       <c r="Q24" s="8">
-        <v>105000</v>
+        <v>98000</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="25.5" customHeight="1">
@@ -10159,7 +10159,7 @@
         <v>22.778079218665219</v>
       </c>
       <c r="Q25" s="8">
-        <v>94500</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="25.5" customHeight="1">
@@ -10212,7 +10212,7 @@
         <v>15.254237288135595</v>
       </c>
       <c r="Q26" s="8">
-        <v>94000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="25.5" customHeight="1">
@@ -10265,7 +10265,7 @@
         <v>80.463871543264943</v>
       </c>
       <c r="Q27" s="8">
-        <v>89000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="25.5" customHeight="1">
@@ -10318,7 +10318,7 @@
         <v>19.163763066202087</v>
       </c>
       <c r="Q28" s="8">
-        <v>100000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="25.5" customHeight="1">
@@ -10371,7 +10371,7 @@
         <v>9.4279618372851335</v>
       </c>
       <c r="Q29" s="8">
-        <v>115000</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="25.5" customHeight="1">
@@ -10424,7 +10424,7 @@
         <v>13.163972286374133</v>
       </c>
       <c r="Q30" s="8">
-        <v>115000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="25.5" customHeight="1">
@@ -10477,7 +10477,7 @@
         <v>14.759458197104157</v>
       </c>
       <c r="Q31" s="8">
-        <v>150000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="25.5" customHeight="1">
@@ -10530,7 +10530,7 @@
         <v>16.788321167883211</v>
       </c>
       <c r="Q32" s="8">
-        <v>160000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="25.5" customHeight="1">
@@ -10583,7 +10583,7 @@
         <v>18.171683389074694</v>
       </c>
       <c r="Q33" s="8">
-        <v>155000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="25.5" customHeight="1">
@@ -10636,7 +10636,7 @@
         <v>8.1317668739921682</v>
       </c>
       <c r="Q34" s="8">
-        <v>93000</v>
+        <v>87000</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="25.5" customHeight="1">
@@ -10689,7 +10689,7 @@
         <v>17.730496453900709</v>
       </c>
       <c r="Q35" s="8">
-        <v>140000</v>
+        <v>112000</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="25.5" customHeight="1">
@@ -10742,7 +10742,7 @@
         <v>11.859049955186565</v>
       </c>
       <c r="Q36" s="8">
-        <v>94000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="25.5" customHeight="1">
@@ -10795,7 +10795,7 @@
         <v>16.98744769874477</v>
       </c>
       <c r="Q37" s="8">
-        <v>91000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="25.5" customHeight="1">
@@ -10848,7 +10848,7 @@
         <v>20.502200362412633</v>
       </c>
       <c r="Q38" s="8">
-        <v>165000</v>
+        <v>154000</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="25.5" customHeight="1">
@@ -10901,7 +10901,7 @@
         <v>91.422333125389898</v>
       </c>
       <c r="Q39" s="8">
-        <v>93000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="25.5" customHeight="1">
@@ -10954,7 +10954,7 @@
         <v>16.960394163350387</v>
       </c>
       <c r="Q40" s="8">
-        <v>161000</v>
+        <v>148000</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="25.5" customHeight="1">
@@ -11007,7 +11007,7 @@
         <v>13.830334190231362</v>
       </c>
       <c r="Q41" s="8">
-        <v>163000</v>
+        <v>100500</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="25.5" customHeight="1">
@@ -11060,7 +11060,7 @@
         <v>10.335393656905461</v>
       </c>
       <c r="Q42" s="8">
-        <v>97500</v>
+        <v>115000</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="25.5" customHeight="1">
@@ -11113,7 +11113,7 @@
         <v>8.0505394979594112</v>
       </c>
       <c r="Q43" s="8">
-        <v>130000</v>
+        <v>113000</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="25.5" customHeight="1">
@@ -11166,7 +11166,7 @@
         <v>18.014059753954307</v>
       </c>
       <c r="Q44" s="8">
-        <v>157000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="25.5" customHeight="1">
@@ -11219,7 +11219,7 @@
         <v>14.601805905800049</v>
       </c>
       <c r="Q45" s="8">
-        <v>92500</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="25.5" customHeight="1">
@@ -11272,7 +11272,7 @@
         <v>13.03604988894584</v>
       </c>
       <c r="Q46" s="8">
-        <v>163000</v>
+        <v>175000</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="25.5" customHeight="1">
@@ -11325,7 +11325,7 @@
         <v>11.550151975683889</v>
       </c>
       <c r="Q47" s="8">
-        <v>93000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="25.5" customHeight="1">
@@ -11378,7 +11378,7 @@
         <v>31.288343558282207</v>
       </c>
       <c r="Q48" s="8">
-        <v>96000</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="25.5" customHeight="1">
@@ -11431,7 +11431,7 @@
         <v>13.465220165922144</v>
       </c>
       <c r="Q49" s="8">
-        <v>97000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="25.5" customHeight="1">
@@ -11484,7 +11484,7 @@
         <v>13.93572181243414</v>
       </c>
       <c r="Q50" s="8">
-        <v>93000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="25.5" customHeight="1">
@@ -11537,7 +11537,7 @@
         <v>10.619145199063231</v>
       </c>
       <c r="Q51" s="8">
-        <v>160000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="25.5" customHeight="1">
@@ -11590,7 +11590,7 @@
         <v>14.660493827160494</v>
       </c>
       <c r="Q52" s="8">
-        <v>105000</v>
+        <v>101000</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="25.5" customHeight="1">
@@ -11643,7 +11643,7 @@
         <v>29.124573436496942</v>
       </c>
       <c r="Q53" s="8">
-        <v>93500</v>
+        <v>99000</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="25.5" customHeight="1">
@@ -11696,7 +11696,7 @@
         <v>22.4</v>
       </c>
       <c r="Q54" s="8">
-        <v>161000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="25.5" customHeight="1">
@@ -11749,7 +11749,7 @@
         <v>28.959316300186948</v>
       </c>
       <c r="Q55" s="8">
-        <v>130000</v>
+        <v>93000</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="25.5" customHeight="1">
@@ -11802,7 +11802,7 @@
         <v>16.109045848822799</v>
       </c>
       <c r="Q56" s="8">
-        <v>155000</v>
+        <v>112500</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="25.5" customHeight="1">
@@ -11908,7 +11908,7 @@
         <v>16.869779542653703</v>
       </c>
       <c r="Q58" s="8">
-        <v>92000</v>
+        <v>92300</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="25.5" customHeight="1">
@@ -11961,7 +11961,7 @@
         <v>17.649177572337614</v>
       </c>
       <c r="Q59" s="8">
-        <v>115000</v>
+        <v>100300</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="25.5" customHeight="1">
@@ -12014,7 +12014,7 @@
         <v>15.953947368421051</v>
       </c>
       <c r="Q60" s="8">
-        <v>99000</v>
+        <v>86000</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="25.5" customHeight="1">
@@ -12120,7 +12120,7 @@
         <v>9.7560975609756095</v>
       </c>
       <c r="Q62" s="8">
-        <v>90000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="25.5" customHeight="1">
@@ -12173,7 +12173,7 @@
         <v>11.148145521594213</v>
       </c>
       <c r="Q63" s="8">
-        <v>110000</v>
+        <v>123000</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="25.5" customHeight="1">
@@ -12226,7 +12226,7 @@
         <v>28.118361902880007</v>
       </c>
       <c r="Q64" s="8">
-        <v>112000</v>
+        <v>134000</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="25.5" customHeight="1">
@@ -12279,7 +12279,7 @@
         <v>32.132352941176471</v>
       </c>
       <c r="Q65" s="8">
-        <v>88000</v>
+        <v>98000</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="25.5" customHeight="1">
@@ -12332,7 +12332,7 @@
         <v>8.9705882352941178</v>
       </c>
       <c r="Q66" s="8">
-        <v>130000</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="25.5" customHeight="1">
@@ -12385,7 +12385,7 @@
         <v>2.9350104821802931</v>
       </c>
       <c r="Q67" s="8">
-        <v>91000</v>
+        <v>93600</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="25.5" customHeight="1">
@@ -12438,7 +12438,7 @@
         <v>13.93401649587603</v>
       </c>
       <c r="Q68" s="8">
-        <v>99000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="25.5" customHeight="1">
